--- a/biology/Zoologie/Chorthippus_brunneus/Chorthippus_brunneus.xlsx
+++ b/biology/Zoologie/Chorthippus_brunneus/Chorthippus_brunneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chorthippus brunneus, le criquet duettiste, est une espèce de criquets de la famille des Acrididae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été nommée Chorthippus brunneus par Thunberg en 1815.Synonymes : Glyptobrotus brunneus Thunberg ; Stauroderus brunneus Thunberg ; Chorthippus bicolor Charpentier, 1825 ; Stauroderus variabilis Fieber, 1852.
 			Chorthippus brunneus
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure 14 à 18 mm et la femelle 19 à 25 mm.Colorations variables : gris, vert, brun pourpre ou noir. Le bord antérieur de l'élytre est renflé à la base et le sternum est pubescent (voir photo à droite).
 </t>
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce eurosibérienne se rencontre en Europe (de la Scandinavie à l'Italie et aux Pyrénées) et dans le nord de l'Asie, les adultes de mi-mai à début novembre.Présent dans toute la France, également en Corse.
 </t>
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (1er avril 2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (1er avril 2010) :
 Chorthippus brunneus brevis (Klingstedt, 1939) ;
 Chorthippus brunneus brunneus (Thunberg, 1815).</t>
         </is>
@@ -639,10 +659,12 @@
           <t>Biotope et stridulation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce criquet affectionne les pelouses sèches ou clairsemées, les chemins ensoleillés, les vignes, les carrières, les milieux découverts à la végétation pauvre.Ses qualités de bon voilier lui permettent de gagner parfois des zones urbaines.
-Le chant est strident : 6 à 10 notes brèves et sèches répétées 2 ou 3 fois en 5 secondes[2]. Si deux mâles rivaux se rencontrent, ils alternent leurs chants en les intensifiant (d'où le nom vernaculaire, « duettiste »).
+Le chant est strident : 6 à 10 notes brèves et sèches répétées 2 ou 3 fois en 5 secondes. Si deux mâles rivaux se rencontrent, ils alternent leurs chants en les intensifiant (d'où le nom vernaculaire, « duettiste »).
 </t>
         </is>
       </c>
@@ -671,7 +693,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Par temps suffisamment chaud, il est facile de provoquer l'émission de stridulations en imitant, même de façon très approximative, le chant des mâles.
 </t>
